--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placements\Love-Babbar-SDE-Sheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5D9FD-612A-43A7-B47D-785D48B1A713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh12Zwz5rPtwhDhOsdOQtcqEEAJhA=="/>
@@ -1419,149 +1428,167 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1751,38 +1778,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.22"/>
-    <col customWidth="1" min="2" max="2" width="28.44"/>
-    <col customWidth="1" min="3" max="3" width="123.0"/>
-    <col customWidth="1" min="4" max="4" width="27.44"/>
-    <col customWidth="1" min="5" max="6" width="11.22"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="115.54296875" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="5" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1796,12 +1824,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -1809,13 +1837,13 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
@@ -1823,13 +1851,13 @@
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -1837,13 +1865,13 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
@@ -1851,13 +1879,13 @@
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
@@ -1865,13 +1893,13 @@
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -1879,13 +1907,13 @@
       <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -1893,13 +1921,13 @@
       <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>6</v>
@@ -1911,9 +1939,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -1925,9 +1953,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
@@ -1939,9 +1967,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>6</v>
@@ -1953,9 +1981,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>6</v>
@@ -1967,9 +1995,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>6</v>
@@ -1981,9 +2009,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
@@ -1995,9 +2023,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>6</v>
@@ -2009,9 +2037,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
@@ -2023,9 +2051,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>6</v>
@@ -2037,9 +2065,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>6</v>
@@ -2051,9 +2079,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
@@ -2065,9 +2093,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>6</v>
@@ -2079,9 +2107,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6</v>
@@ -2093,9 +2121,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>6</v>
@@ -2107,9 +2135,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>6</v>
@@ -2121,9 +2149,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>6</v>
@@ -2135,9 +2163,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>6</v>
@@ -2149,9 +2177,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -2163,9 +2191,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>6</v>
@@ -2177,9 +2205,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>6</v>
@@ -2191,9 +2219,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>6</v>
@@ -2205,9 +2233,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>6</v>
@@ -2219,9 +2247,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="6">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>6</v>
@@ -2233,9 +2261,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>6</v>
@@ -2247,9 +2275,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>6</v>
@@ -2261,9 +2289,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>6</v>
@@ -2275,9 +2303,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>6</v>
@@ -2289,9 +2317,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>6</v>
@@ -2303,18 +2331,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C42" s="10"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
       <c r="C43" s="10"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A44" s="11">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>44</v>
@@ -2326,9 +2354,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A45" s="13">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>44</v>
@@ -2340,9 +2368,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>44</v>
@@ -2354,9 +2382,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A47" s="13">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>44</v>
@@ -2368,9 +2396,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>44</v>
@@ -2382,9 +2410,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A49" s="15">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>44</v>
@@ -2396,9 +2424,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="14">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>44</v>
@@ -2410,9 +2438,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A51" s="13">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>44</v>
@@ -2424,9 +2452,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A52" s="14">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>44</v>
@@ -2438,9 +2466,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A53" s="13">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>44</v>
@@ -2452,17 +2480,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B55" s="7"/>
       <c r="C55" s="10"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A56" s="13">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>55</v>
@@ -2474,9 +2502,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A57" s="13">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>55</v>
@@ -2488,9 +2516,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A58" s="13">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>55</v>
@@ -2502,9 +2530,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A59" s="15">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>55</v>
@@ -2516,9 +2544,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A60" s="13">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>55</v>
@@ -2530,9 +2558,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="13">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>55</v>
@@ -2544,9 +2572,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A62" s="13">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>55</v>
@@ -2558,9 +2586,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A63" s="13">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>55</v>
@@ -2572,9 +2600,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A64" s="15">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>55</v>
@@ -2586,9 +2614,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A65" s="13">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>55</v>
@@ -2600,9 +2628,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A66" s="13">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>55</v>
@@ -2614,9 +2642,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A67" s="13">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>55</v>
@@ -2628,9 +2656,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A68" s="15">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>55</v>
@@ -2642,9 +2670,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A69" s="13">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>55</v>
@@ -2656,9 +2684,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A70" s="13">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>55</v>
@@ -2670,9 +2698,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A71" s="13">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>55</v>
@@ -2684,9 +2712,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A72" s="13">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>55</v>
@@ -2698,9 +2726,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A73" s="15">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>55</v>
@@ -2712,9 +2740,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A74" s="13">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>55</v>
@@ -2726,9 +2754,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A75" s="13">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>55</v>
@@ -2740,9 +2768,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A76" s="13">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>55</v>
@@ -2754,9 +2782,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A77" s="13">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>55</v>
@@ -2768,9 +2796,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A78" s="13">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>55</v>
@@ -2782,9 +2810,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A79" s="13">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>55</v>
@@ -2796,9 +2824,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A80" s="15">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>55</v>
@@ -2810,9 +2838,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A81" s="13">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>55</v>
@@ -2824,9 +2852,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A82" s="13">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>55</v>
@@ -2838,9 +2866,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A83" s="13">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>55</v>
@@ -2852,9 +2880,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A84" s="13">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>55</v>
@@ -2866,9 +2894,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A85" s="15">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>55</v>
@@ -2880,9 +2908,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A86" s="13">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>55</v>
@@ -2894,9 +2922,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A87" s="13">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>55</v>
@@ -2908,9 +2936,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A88" s="13">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>55</v>
@@ -2922,9 +2950,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A89" s="13">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>55</v>
@@ -2936,9 +2964,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A90" s="15">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>55</v>
@@ -2950,9 +2978,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A91" s="13">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>55</v>
@@ -2964,9 +2992,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="13">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>55</v>
@@ -2978,9 +3006,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A93" s="13">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>55</v>
@@ -2992,9 +3020,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A94" s="13">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>55</v>
@@ -3006,9 +3034,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A95" s="15">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>55</v>
@@ -3020,9 +3048,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A96" s="13">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>55</v>
@@ -3034,9 +3062,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A97" s="13">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>55</v>
@@ -3048,9 +3076,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A98" s="13">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>55</v>
@@ -3062,15 +3090,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A100" s="16"/>
       <c r="B100" s="12"/>
       <c r="C100" s="10"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A101" s="13">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>99</v>
@@ -3082,9 +3110,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A102" s="13">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>99</v>
@@ -3096,9 +3124,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A103" s="13">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>99</v>
@@ -3110,9 +3138,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A104" s="15">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>99</v>
@@ -3124,9 +3152,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A105" s="13">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>99</v>
@@ -3138,9 +3166,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A106" s="13">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>99</v>
@@ -3152,9 +3180,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A107" s="13">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>99</v>
@@ -3166,9 +3194,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A108" s="13">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>99</v>
@@ -3180,9 +3208,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A109" s="15">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>99</v>
@@ -3194,9 +3222,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A110" s="13">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>99</v>
@@ -3208,9 +3236,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A111" s="13">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>99</v>
@@ -3222,9 +3250,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A112" s="13">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>99</v>
@@ -3236,9 +3264,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A113" s="13">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>99</v>
@@ -3250,9 +3278,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A114" s="13">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>99</v>
@@ -3264,9 +3292,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A115" s="13">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>99</v>
@@ -3278,9 +3306,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A116" s="15">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>99</v>
@@ -3292,9 +3320,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A117" s="13">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>99</v>
@@ -3306,9 +3334,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A118" s="13">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>99</v>
@@ -3320,9 +3348,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A119" s="13">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>99</v>
@@ -3334,9 +3362,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A120" s="13">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>99</v>
@@ -3348,9 +3376,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A121" s="15">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>99</v>
@@ -3362,9 +3390,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A122" s="13">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>99</v>
@@ -3376,9 +3404,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A123" s="13">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>99</v>
@@ -3390,9 +3418,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A124" s="13">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>99</v>
@@ -3404,9 +3432,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A125" s="13">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>99</v>
@@ -3418,9 +3446,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A126" s="15">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>99</v>
@@ -3432,9 +3460,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A127" s="13">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>99</v>
@@ -3446,9 +3474,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A128" s="13">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>99</v>
@@ -3460,9 +3488,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A129" s="13">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>99</v>
@@ -3474,9 +3502,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A130" s="13">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>99</v>
@@ -3488,9 +3516,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A131" s="15">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>99</v>
@@ -3502,9 +3530,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A132" s="13">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>99</v>
@@ -3516,9 +3544,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A133" s="13">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>99</v>
@@ -3530,9 +3558,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A134" s="13">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>99</v>
@@ -3544,9 +3572,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A135" s="13">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>99</v>
@@ -3558,9 +3586,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A136" s="15">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>99</v>
@@ -3572,13 +3600,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C138" s="10"/>
       <c r="D138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A139" s="13">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>136</v>
@@ -3590,9 +3618,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A140" s="11">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>136</v>
@@ -3604,9 +3632,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A141" s="13">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>136</v>
@@ -3618,9 +3646,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A142" s="14">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>136</v>
@@ -3632,9 +3660,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A143" s="13">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>136</v>
@@ -3646,9 +3674,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A144" s="14">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>136</v>
@@ -3660,9 +3688,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A145" s="15">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>136</v>
@@ -3674,9 +3702,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A146" s="14">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>136</v>
@@ -3688,9 +3716,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A147" s="13">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>136</v>
@@ -3702,9 +3730,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A148" s="14">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>136</v>
@@ -3716,9 +3744,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A149" s="13">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>136</v>
@@ -3730,9 +3758,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A150" s="14">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>136</v>
@@ -3744,9 +3772,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A151" s="13">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>136</v>
@@ -3758,9 +3786,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A152" s="11">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>136</v>
@@ -3772,9 +3800,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A153" s="13">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>136</v>
@@ -3786,9 +3814,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A154" s="14">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>136</v>
@@ -3800,9 +3828,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A155" s="13">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>136</v>
@@ -3814,9 +3842,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A156" s="14">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>136</v>
@@ -3828,9 +3856,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A157" s="15">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>136</v>
@@ -3842,9 +3870,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A158" s="14">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>136</v>
@@ -3856,9 +3884,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A159" s="13">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>136</v>
@@ -3870,9 +3898,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A160" s="14">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>136</v>
@@ -3884,9 +3912,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A161" s="13">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>136</v>
@@ -3898,9 +3926,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A162" s="11">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B162" s="12" t="s">
         <v>136</v>
@@ -3912,9 +3940,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A163" s="13">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>136</v>
@@ -3926,9 +3954,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A164" s="14">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>136</v>
@@ -3940,9 +3968,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A165" s="13">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B165" s="12" t="s">
         <v>136</v>
@@ -3954,9 +3982,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A166" s="14">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B166" s="12" t="s">
         <v>136</v>
@@ -3968,9 +3996,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A167" s="15">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>136</v>
@@ -3982,9 +4010,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A168" s="14">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B168" s="12" t="s">
         <v>136</v>
@@ -3996,9 +4024,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A169" s="13">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>136</v>
@@ -4010,9 +4038,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A170" s="14">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B170" s="12" t="s">
         <v>136</v>
@@ -4024,9 +4052,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A171" s="13">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B171" s="12" t="s">
         <v>136</v>
@@ -4038,9 +4066,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A172" s="11">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B172" s="12" t="s">
         <v>136</v>
@@ -4052,9 +4080,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A173" s="13">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B173" s="12" t="s">
         <v>136</v>
@@ -4066,9 +4094,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A174" s="14">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B174" s="12" t="s">
         <v>136</v>
@@ -4080,14 +4108,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A176" s="16"/>
       <c r="C176" s="10"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A177" s="13">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>173</v>
@@ -4099,9 +4127,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A178" s="13">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>173</v>
@@ -4113,9 +4141,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A179" s="13">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>173</v>
@@ -4127,9 +4155,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A180" s="13">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>173</v>
@@ -4141,9 +4169,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A181" s="15">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>173</v>
@@ -4155,9 +4183,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A182" s="13">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>173</v>
@@ -4169,9 +4197,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A183" s="13">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>173</v>
@@ -4183,9 +4211,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A184" s="13">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>173</v>
@@ -4197,9 +4225,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A185" s="13">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>173</v>
@@ -4211,9 +4239,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A186" s="13">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>173</v>
@@ -4225,9 +4253,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A187" s="13">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>173</v>
@@ -4239,9 +4267,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A188" s="15">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>173</v>
@@ -4253,9 +4281,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A189" s="13">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>173</v>
@@ -4267,9 +4295,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A190" s="13">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>173</v>
@@ -4281,9 +4309,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A191" s="13">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>173</v>
@@ -4295,9 +4323,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A192" s="13">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>173</v>
@@ -4309,9 +4337,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A193" s="15">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>173</v>
@@ -4323,9 +4351,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A194" s="13">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>173</v>
@@ -4337,9 +4365,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A195" s="13">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>173</v>
@@ -4351,9 +4379,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A196" s="13">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>173</v>
@@ -4365,9 +4393,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A197" s="13">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>173</v>
@@ -4379,9 +4407,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A198" s="15">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>173</v>
@@ -4393,9 +4421,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A199" s="13">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>173</v>
@@ -4407,9 +4435,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A200" s="13">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>173</v>
@@ -4421,9 +4449,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A201" s="13">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>173</v>
@@ -4435,9 +4463,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A202" s="13">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>173</v>
@@ -4449,9 +4477,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A203" s="15">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>173</v>
@@ -4463,9 +4491,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A204" s="13">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>173</v>
@@ -4477,9 +4505,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A205" s="13">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>173</v>
@@ -4491,9 +4519,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A206" s="13">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>173</v>
@@ -4505,9 +4533,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A207" s="13">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>173</v>
@@ -4519,9 +4547,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A208" s="15">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>173</v>
@@ -4533,9 +4561,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A209" s="13">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>173</v>
@@ -4547,9 +4575,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A210" s="13">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>173</v>
@@ -4561,9 +4589,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A211" s="13">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>173</v>
@@ -4575,20 +4603,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A212" s="16"/>
       <c r="B212" s="12"/>
       <c r="C212" s="10"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B213" s="12"/>
       <c r="C213" s="10"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A214" s="13">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>209</v>
@@ -4600,9 +4628,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A215" s="13">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>209</v>
@@ -4614,9 +4642,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A216" s="13">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>209</v>
@@ -4628,9 +4656,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A217" s="15">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>209</v>
@@ -4642,9 +4670,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A218" s="13">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>209</v>
@@ -4656,9 +4684,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A219" s="13">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>209</v>
@@ -4670,9 +4698,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A220" s="13">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>209</v>
@@ -4684,9 +4712,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A221" s="13">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>209</v>
@@ -4698,9 +4726,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A222" s="13">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>209</v>
@@ -4712,9 +4740,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A223" s="13">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>209</v>
@@ -4726,9 +4754,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A224" s="15">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>209</v>
@@ -4740,9 +4768,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A225" s="13">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>209</v>
@@ -4754,9 +4782,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A226" s="13">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>209</v>
@@ -4768,9 +4796,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A227" s="13">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>209</v>
@@ -4782,9 +4810,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A228" s="13">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>209</v>
@@ -4796,9 +4824,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A229" s="15">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>209</v>
@@ -4810,9 +4838,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A230" s="13">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>209</v>
@@ -4824,9 +4852,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A231" s="13">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>209</v>
@@ -4838,9 +4866,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A232" s="13">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>209</v>
@@ -4852,9 +4880,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A233" s="13">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>209</v>
@@ -4866,9 +4894,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A234" s="15">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>209</v>
@@ -4880,9 +4908,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A235" s="13">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>209</v>
@@ -4894,17 +4922,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C236" s="10"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C237" s="10"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A238" s="13">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>232</v>
@@ -4916,9 +4944,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A239" s="11">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>232</v>
@@ -4930,9 +4958,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A240" s="13">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>232</v>
@@ -4944,9 +4972,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A241" s="14">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>232</v>
@@ -4958,9 +4986,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A242" s="13">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>232</v>
@@ -4972,9 +5000,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A243" s="14">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>232</v>
@@ -4986,9 +5014,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A244" s="15">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>232</v>
@@ -5000,9 +5028,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A245" s="14">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>232</v>
@@ -5014,9 +5042,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A246" s="13">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>232</v>
@@ -5028,9 +5056,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A247" s="14">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>232</v>
@@ -5042,9 +5070,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A248" s="15">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>232</v>
@@ -5056,9 +5084,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A249" s="14">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>232</v>
@@ -5070,9 +5098,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A250" s="13">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>232</v>
@@ -5084,9 +5112,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A251" s="14">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>232</v>
@@ -5098,9 +5126,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A252" s="13">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>232</v>
@@ -5112,9 +5140,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A253" s="11">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>232</v>
@@ -5126,9 +5154,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A254" s="13">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>232</v>
@@ -5140,9 +5168,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A255" s="14">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>232</v>
@@ -5154,9 +5182,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A256" s="13">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>232</v>
@@ -5168,9 +5196,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A257" s="14">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>232</v>
@@ -5182,9 +5210,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A258" s="13">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="B258" s="7" t="s">
         <v>232</v>
@@ -5196,9 +5224,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A259" s="14">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>232</v>
@@ -5210,9 +5238,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A260" s="15">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>232</v>
@@ -5224,9 +5252,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A261" s="14">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>232</v>
@@ -5238,9 +5266,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A262" s="13">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>232</v>
@@ -5252,9 +5280,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A263" s="14">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>232</v>
@@ -5266,9 +5294,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A264" s="13">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>232</v>
@@ -5280,9 +5308,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A265" s="11">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>232</v>
@@ -5294,9 +5322,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A266" s="13">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>232</v>
@@ -5308,9 +5336,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A267" s="14">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>232</v>
@@ -5322,9 +5350,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A268" s="13">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>232</v>
@@ -5336,9 +5364,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A269" s="14">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>232</v>
@@ -5350,9 +5378,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A270" s="15">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>232</v>
@@ -5364,9 +5392,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A271" s="14">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>232</v>
@@ -5378,9 +5406,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A272" s="13">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>232</v>
@@ -5392,17 +5420,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C273" s="10"/>
       <c r="D273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C274" s="10"/>
       <c r="D274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A275" s="11">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="B275" s="7" t="s">
         <v>267</v>
@@ -5414,9 +5442,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A276" s="13">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>267</v>
@@ -5428,9 +5456,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A277" s="14">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>267</v>
@@ -5442,9 +5470,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A278" s="13">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>267</v>
@@ -5456,9 +5484,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A279" s="14">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>267</v>
@@ -5470,9 +5498,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A280" s="15">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>267</v>
@@ -5484,9 +5512,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A281" s="14">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B281" s="7" t="s">
         <v>267</v>
@@ -5498,9 +5526,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A282" s="13">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="B282" s="7" t="s">
         <v>267</v>
@@ -5512,9 +5540,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A283" s="14">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>267</v>
@@ -5526,9 +5554,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A284" s="15">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="B284" s="7" t="s">
         <v>267</v>
@@ -5540,9 +5568,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A285" s="14">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="B285" s="7" t="s">
         <v>267</v>
@@ -5554,9 +5582,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A286" s="13">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>267</v>
@@ -5568,9 +5596,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A287" s="14">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="B287" s="7" t="s">
         <v>267</v>
@@ -5582,9 +5610,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A288" s="13">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="B288" s="7" t="s">
         <v>267</v>
@@ -5596,9 +5624,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A289" s="11">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>267</v>
@@ -5610,9 +5638,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A290" s="13">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>267</v>
@@ -5624,9 +5652,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A291" s="14">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B291" s="7" t="s">
         <v>267</v>
@@ -5638,9 +5666,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A292" s="13">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>267</v>
@@ -5652,9 +5680,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A293" s="14">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>267</v>
@@ -5666,17 +5694,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C294" s="10"/>
       <c r="D294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C295" s="10"/>
       <c r="D295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A296" s="11">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>287</v>
@@ -5688,9 +5716,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A297" s="13">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="B297" s="7" t="s">
         <v>287</v>
@@ -5702,9 +5730,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A298" s="14">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>287</v>
@@ -5716,9 +5744,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A299" s="13">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B299" s="7" t="s">
         <v>287</v>
@@ -5730,9 +5758,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A300" s="14">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>287</v>
@@ -5744,9 +5772,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A301" s="15">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>287</v>
@@ -5758,9 +5786,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A302" s="14">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>287</v>
@@ -5772,9 +5800,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A303" s="13">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>287</v>
@@ -5786,9 +5814,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A304" s="14">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>287</v>
@@ -5800,9 +5828,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A305" s="13">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>287</v>
@@ -5814,9 +5842,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A306" s="11">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B306" s="7" t="s">
         <v>287</v>
@@ -5828,9 +5856,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A307" s="13">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>287</v>
@@ -5842,9 +5870,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A308" s="14">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>287</v>
@@ -5856,9 +5884,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A309" s="13">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="B309" s="7" t="s">
         <v>287</v>
@@ -5870,9 +5898,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A310" s="14">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B310" s="7" t="s">
         <v>287</v>
@@ -5884,9 +5912,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A311" s="15">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>287</v>
@@ -5898,9 +5926,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A312" s="14">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>287</v>
@@ -5912,9 +5940,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A313" s="13">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B313" s="7" t="s">
         <v>287</v>
@@ -5926,9 +5954,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A314" s="14">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="B314" s="7" t="s">
         <v>287</v>
@@ -5940,9 +5968,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A315" s="13">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>287</v>
@@ -5954,9 +5982,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A316" s="11">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="B316" s="7" t="s">
         <v>287</v>
@@ -5968,9 +5996,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A317" s="13">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>287</v>
@@ -5982,9 +6010,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A318" s="14">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>287</v>
@@ -5996,9 +6024,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A319" s="13">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="B319" s="7" t="s">
         <v>287</v>
@@ -6010,9 +6038,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A320" s="11">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B320" s="7" t="s">
         <v>287</v>
@@ -6024,9 +6052,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A321" s="13">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="B321" s="7" t="s">
         <v>287</v>
@@ -6038,9 +6066,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A322" s="14">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="B322" s="7" t="s">
         <v>287</v>
@@ -6052,9 +6080,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A323" s="13">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B323" s="7" t="s">
         <v>287</v>
@@ -6066,9 +6094,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A324" s="14">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>287</v>
@@ -6080,9 +6108,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A325" s="15">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>287</v>
@@ -6094,9 +6122,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A326" s="14">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="B326" s="7" t="s">
         <v>287</v>
@@ -6108,9 +6136,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A327" s="13">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="B327" s="7" t="s">
         <v>287</v>
@@ -6122,9 +6150,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A328" s="14">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>287</v>
@@ -6136,9 +6164,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A329" s="13">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="B329" s="7" t="s">
         <v>287</v>
@@ -6150,9 +6178,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A330" s="14">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>287</v>
@@ -6164,9 +6192,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A331" s="13">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>287</v>
@@ -6178,9 +6206,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A332" s="11">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="B332" s="7" t="s">
         <v>287</v>
@@ -6192,9 +6220,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A333" s="13">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>287</v>
@@ -6206,17 +6234,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C334" s="10"/>
       <c r="D334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C335" s="10"/>
       <c r="D335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A336" s="13">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="B336" s="12" t="s">
         <v>326</v>
@@ -6228,9 +6256,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A337" s="11">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="B337" s="12" t="s">
         <v>326</v>
@@ -6242,9 +6270,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A338" s="13">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="B338" s="12" t="s">
         <v>326</v>
@@ -6256,9 +6284,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A339" s="14">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="B339" s="12" t="s">
         <v>326</v>
@@ -6270,9 +6298,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A340" s="13">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B340" s="12" t="s">
         <v>326</v>
@@ -6284,9 +6312,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A341" s="14">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B341" s="12" t="s">
         <v>326</v>
@@ -6298,9 +6326,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A342" s="15">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="B342" s="12" t="s">
         <v>326</v>
@@ -6312,9 +6340,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A343" s="14">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="B343" s="12" t="s">
         <v>326</v>
@@ -6326,9 +6354,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A344" s="13">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="B344" s="12" t="s">
         <v>326</v>
@@ -6340,9 +6368,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A345" s="14">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B345" s="12" t="s">
         <v>326</v>
@@ -6354,9 +6382,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A346" s="13">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="B346" s="12" t="s">
         <v>326</v>
@@ -6368,9 +6396,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A347" s="11">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="B347" s="12" t="s">
         <v>326</v>
@@ -6382,9 +6410,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A348" s="13">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="B348" s="12" t="s">
         <v>326</v>
@@ -6396,9 +6424,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A349" s="14">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="B349" s="12" t="s">
         <v>326</v>
@@ -6410,9 +6438,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A350" s="13">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B350" s="12" t="s">
         <v>326</v>
@@ -6424,9 +6452,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A351" s="14">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="B351" s="12" t="s">
         <v>326</v>
@@ -6438,9 +6466,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A352" s="15">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="B352" s="12" t="s">
         <v>326</v>
@@ -6452,9 +6480,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A353" s="14">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="B353" s="12" t="s">
         <v>326</v>
@@ -6466,17 +6494,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C354" s="10"/>
       <c r="D354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C355" s="10"/>
       <c r="D355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A356" s="11">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="B356" s="12" t="s">
         <v>345</v>
@@ -6488,9 +6516,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A357" s="13">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B357" s="12" t="s">
         <v>345</v>
@@ -6502,9 +6530,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A358" s="14">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="B358" s="12" t="s">
         <v>345</v>
@@ -6516,9 +6544,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A359" s="13">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="B359" s="12" t="s">
         <v>345</v>
@@ -6530,9 +6558,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A360" s="14">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="B360" s="12" t="s">
         <v>345</v>
@@ -6544,9 +6572,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A361" s="15">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="B361" s="12" t="s">
         <v>345</v>
@@ -6558,9 +6586,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A362" s="14">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B362" s="12" t="s">
         <v>345</v>
@@ -6572,9 +6600,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A363" s="13">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="B363" s="12" t="s">
         <v>345</v>
@@ -6586,9 +6614,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A364" s="14">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="B364" s="12" t="s">
         <v>345</v>
@@ -6600,9 +6628,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A365" s="13">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="B365" s="12" t="s">
         <v>345</v>
@@ -6614,9 +6642,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A366" s="14">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="B366" s="12" t="s">
         <v>345</v>
@@ -6628,9 +6656,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A367" s="13">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B367" s="12" t="s">
         <v>345</v>
@@ -6642,9 +6670,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A368" s="11">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="B368" s="12" t="s">
         <v>345</v>
@@ -6656,9 +6684,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A369" s="13">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="B369" s="12" t="s">
         <v>345</v>
@@ -6670,9 +6698,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A370" s="14">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="B370" s="12" t="s">
         <v>345</v>
@@ -6684,9 +6712,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A371" s="13">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B371" s="12" t="s">
         <v>345</v>
@@ -6698,9 +6726,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A372" s="14">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B372" s="12" t="s">
         <v>345</v>
@@ -6712,9 +6740,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A373" s="15">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="B373" s="12" t="s">
         <v>345</v>
@@ -6726,9 +6754,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A374" s="14">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="B374" s="12" t="s">
         <v>345</v>
@@ -6740,9 +6768,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A375" s="13">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="B375" s="12" t="s">
         <v>345</v>
@@ -6754,9 +6782,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A376" s="14">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="B376" s="12" t="s">
         <v>345</v>
@@ -6768,9 +6796,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A377" s="13">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="B377" s="12" t="s">
         <v>345</v>
@@ -6782,9 +6810,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A378" s="11">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="B378" s="12" t="s">
         <v>345</v>
@@ -6796,9 +6824,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A379" s="13">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="B379" s="12" t="s">
         <v>345</v>
@@ -6810,9 +6838,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A380" s="14">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="B380" s="12" t="s">
         <v>345</v>
@@ -6824,9 +6852,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A381" s="13">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="B381" s="12" t="s">
         <v>345</v>
@@ -6838,9 +6866,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A382" s="14">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="B382" s="12" t="s">
         <v>345</v>
@@ -6852,9 +6880,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A383" s="15">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B383" s="12" t="s">
         <v>345</v>
@@ -6866,9 +6894,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A384" s="14">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="B384" s="12" t="s">
         <v>345</v>
@@ -6880,9 +6908,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A385" s="13">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="B385" s="12" t="s">
         <v>345</v>
@@ -6894,9 +6922,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A386" s="14">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="B386" s="12" t="s">
         <v>345</v>
@@ -6908,9 +6936,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A387" s="13">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B387" s="12" t="s">
         <v>345</v>
@@ -6922,9 +6950,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A388" s="11">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="B388" s="12" t="s">
         <v>345</v>
@@ -6936,9 +6964,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A389" s="13">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="B389" s="12" t="s">
         <v>345</v>
@@ -6950,9 +6978,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A390" s="14">
-        <v>363.0</v>
+        <v>363</v>
       </c>
       <c r="B390" s="12" t="s">
         <v>345</v>
@@ -6964,9 +6992,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A391" s="13">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="B391" s="12" t="s">
         <v>345</v>
@@ -6978,9 +7006,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A392" s="11">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="B392" s="12" t="s">
         <v>345</v>
@@ -6992,9 +7020,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A393" s="13">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="B393" s="12" t="s">
         <v>345</v>
@@ -7006,9 +7034,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A394" s="14">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="B394" s="12" t="s">
         <v>345</v>
@@ -7020,9 +7048,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A395" s="13">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="B395" s="12" t="s">
         <v>345</v>
@@ -7034,9 +7062,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A396" s="14">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="B396" s="12" t="s">
         <v>345</v>
@@ -7048,9 +7076,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A397" s="15">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="B397" s="12" t="s">
         <v>345</v>
@@ -7062,9 +7090,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A398" s="14">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="B398" s="12" t="s">
         <v>345</v>
@@ -7076,9 +7104,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A399" s="13">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="B399" s="12" t="s">
         <v>345</v>
@@ -7090,17 +7118,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C400" s="10"/>
       <c r="D400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C401" s="10"/>
       <c r="D401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A402" s="13">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="B402" s="12" t="s">
         <v>389</v>
@@ -7112,9 +7140,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A403" s="13">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="B403" s="12" t="s">
         <v>389</v>
@@ -7126,9 +7154,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A404" s="15">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="B404" s="12" t="s">
         <v>389</v>
@@ -7140,9 +7168,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A405" s="13">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="B405" s="12" t="s">
         <v>389</v>
@@ -7154,9 +7182,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A406" s="13">
-        <v>377.0</v>
+        <v>377</v>
       </c>
       <c r="B406" s="12" t="s">
         <v>389</v>
@@ -7168,9 +7196,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A407" s="13">
-        <v>378.0</v>
+        <v>378</v>
       </c>
       <c r="B407" s="12" t="s">
         <v>389</v>
@@ -7182,18 +7210,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C408" s="10"/>
       <c r="D408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A409" s="16"/>
       <c r="C409" s="10"/>
       <c r="D409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A410" s="13">
-        <v>379.0</v>
+        <v>379</v>
       </c>
       <c r="B410" s="7" t="s">
         <v>395</v>
@@ -7205,9 +7233,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A411" s="13">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B411" s="7" t="s">
         <v>395</v>
@@ -7219,9 +7247,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A412" s="13">
-        <v>381.0</v>
+        <v>381</v>
       </c>
       <c r="B412" s="7" t="s">
         <v>395</v>
@@ -7233,9 +7261,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A413" s="13">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="B413" s="7" t="s">
         <v>395</v>
@@ -7247,9 +7275,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A414" s="15">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="B414" s="7" t="s">
         <v>395</v>
@@ -7261,9 +7289,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A415" s="13">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="B415" s="7" t="s">
         <v>395</v>
@@ -7275,9 +7303,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A416" s="13">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="B416" s="7" t="s">
         <v>395</v>
@@ -7289,9 +7317,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A417" s="13">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>395</v>
@@ -7303,9 +7331,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A418" s="13">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="B418" s="7" t="s">
         <v>395</v>
@@ -7317,9 +7345,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A419" s="15">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="B419" s="7" t="s">
         <v>395</v>
@@ -7331,9 +7359,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A420" s="13">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="B420" s="7" t="s">
         <v>395</v>
@@ -7345,9 +7373,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A421" s="13">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>395</v>
@@ -7359,9 +7387,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A422" s="13">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="B422" s="7" t="s">
         <v>395</v>
@@ -7373,9 +7401,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A423" s="13">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B423" s="7" t="s">
         <v>395</v>
@@ -7387,9 +7415,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A424" s="15">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="B424" s="7" t="s">
         <v>395</v>
@@ -7401,9 +7429,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A425" s="13">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="B425" s="7" t="s">
         <v>395</v>
@@ -7415,9 +7443,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A426" s="13">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="B426" s="7" t="s">
         <v>395</v>
@@ -7429,9 +7457,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A427" s="13">
-        <v>396.0</v>
+        <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
         <v>395</v>
@@ -7443,9 +7471,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A428" s="15">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
         <v>395</v>
@@ -7457,9 +7485,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A429" s="13">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="B429" s="7" t="s">
         <v>395</v>
@@ -7471,9 +7499,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A430" s="13">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="B430" s="7" t="s">
         <v>395</v>
@@ -7485,9 +7513,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A431" s="13">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B431" s="7" t="s">
         <v>395</v>
@@ -7499,9 +7527,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A432" s="13">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="B432" s="7" t="s">
         <v>395</v>
@@ -7513,9 +7541,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A433" s="15">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>395</v>
@@ -7527,9 +7555,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A434" s="13">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>395</v>
@@ -7541,9 +7569,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A435" s="13">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>395</v>
@@ -7555,9 +7583,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A436" s="13">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B436" s="7" t="s">
         <v>395</v>
@@ -7569,9 +7597,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A437" s="13">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="B437" s="7" t="s">
         <v>395</v>
@@ -7583,9 +7611,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A438" s="13">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="B438" s="7" t="s">
         <v>395</v>
@@ -7597,9 +7625,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A439" s="13">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="B439" s="7" t="s">
         <v>395</v>
@@ -7611,9 +7639,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A440" s="15">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="B440" s="7" t="s">
         <v>395</v>
@@ -7625,9 +7653,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A441" s="13">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B441" s="7" t="s">
         <v>395</v>
@@ -7639,9 +7667,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A442" s="13">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="B442" s="7" t="s">
         <v>395</v>
@@ -7653,9 +7681,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A443" s="13">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="B443" s="7" t="s">
         <v>395</v>
@@ -7667,9 +7695,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A444" s="13">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="B444" s="7" t="s">
         <v>395</v>
@@ -7681,9 +7709,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A445" s="15">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="B445" s="7" t="s">
         <v>395</v>
@@ -7695,9 +7723,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A446" s="13">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="B446" s="7" t="s">
         <v>395</v>
@@ -7709,9 +7737,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A447" s="13">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="B447" s="7" t="s">
         <v>395</v>
@@ -7723,9 +7751,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A448" s="13">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="B448" s="7" t="s">
         <v>395</v>
@@ -7737,9 +7765,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A449" s="13">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="B449" s="7" t="s">
         <v>395</v>
@@ -7751,9 +7779,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A450" s="15">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="B450" s="7" t="s">
         <v>395</v>
@@ -7765,9 +7793,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A451" s="13">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B451" s="7" t="s">
         <v>395</v>
@@ -7779,9 +7807,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A452" s="13">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="B452" s="7" t="s">
         <v>395</v>
@@ -7793,9 +7821,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A453" s="13">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="B453" s="7" t="s">
         <v>395</v>
@@ -7807,9 +7835,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A454" s="13">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="B454" s="7" t="s">
         <v>395</v>
@@ -7821,9 +7849,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A455" s="15">
-        <v>424.0</v>
+        <v>424</v>
       </c>
       <c r="B455" s="7" t="s">
         <v>395</v>
@@ -7835,9 +7863,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A456" s="13">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="B456" s="7" t="s">
         <v>395</v>
@@ -7849,9 +7877,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A457" s="13">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B457" s="7" t="s">
         <v>395</v>
@@ -7863,9 +7891,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A458" s="13">
-        <v>427.0</v>
+        <v>427</v>
       </c>
       <c r="B458" s="7" t="s">
         <v>395</v>
@@ -7877,9 +7905,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A459" s="13">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="B459" s="7" t="s">
         <v>395</v>
@@ -7891,9 +7919,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A460" s="15">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="B460" s="7" t="s">
         <v>395</v>
@@ -7905,9 +7933,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A461" s="13">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B461" s="7" t="s">
         <v>395</v>
@@ -7919,9 +7947,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A462" s="13">
-        <v>431.0</v>
+        <v>431</v>
       </c>
       <c r="B462" s="7" t="s">
         <v>395</v>
@@ -7933,9 +7961,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A463" s="13">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="B463" s="7" t="s">
         <v>395</v>
@@ -7947,9 +7975,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A464" s="15">
-        <v>433.0</v>
+        <v>433</v>
       </c>
       <c r="B464" s="7" t="s">
         <v>395</v>
@@ -7961,9 +7989,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A465" s="13">
-        <v>434.0</v>
+        <v>434</v>
       </c>
       <c r="B465" s="7" t="s">
         <v>395</v>
@@ -7975,9 +8003,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A466" s="13">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="B466" s="7" t="s">
         <v>395</v>
@@ -7989,9 +8017,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A467" s="13">
-        <v>436.0</v>
+        <v>436</v>
       </c>
       <c r="B467" s="7" t="s">
         <v>395</v>
@@ -8003,9 +8031,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A468" s="13">
-        <v>437.0</v>
+        <v>437</v>
       </c>
       <c r="B468" s="7" t="s">
         <v>395</v>
@@ -8017,9 +8045,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A469" s="15">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="B469" s="7" t="s">
         <v>395</v>
@@ -8031,18 +8059,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="C470" s="10"/>
       <c r="D470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B471" s="12"/>
       <c r="C471" s="10"/>
       <c r="D471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A472" s="13">
-        <v>439.0</v>
+        <v>439</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>455</v>
@@ -8054,9 +8082,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A473" s="13">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="B473" s="7" t="s">
         <v>455</v>
@@ -8068,9 +8096,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A474" s="13">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="B474" s="7" t="s">
         <v>455</v>
@@ -8082,9 +8110,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A475" s="13">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="B475" s="7" t="s">
         <v>455</v>
@@ -8096,9 +8124,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A476" s="15">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="B476" s="7" t="s">
         <v>455</v>
@@ -8110,9 +8138,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A477" s="13">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="B477" s="7" t="s">
         <v>455</v>
@@ -8124,9 +8152,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A478" s="13">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="B478" s="7" t="s">
         <v>455</v>
@@ -8138,9 +8166,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A479" s="13">
-        <v>446.0</v>
+        <v>446</v>
       </c>
       <c r="B479" s="7" t="s">
         <v>455</v>
@@ -8152,9 +8180,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A480" s="13">
-        <v>447.0</v>
+        <v>447</v>
       </c>
       <c r="B480" s="7" t="s">
         <v>455</v>
@@ -8166,9 +8194,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A481" s="15">
-        <v>448.0</v>
+        <v>448</v>
       </c>
       <c r="B481" s="7" t="s">
         <v>455</v>
@@ -8182,456 +8210,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C6"/>
-    <hyperlink r:id="rId3" ref="C7"/>
-    <hyperlink r:id="rId4" ref="C8"/>
-    <hyperlink r:id="rId5" ref="C9"/>
-    <hyperlink r:id="rId6" ref="C10"/>
-    <hyperlink r:id="rId7" ref="C11"/>
-    <hyperlink r:id="rId8" ref="C12"/>
-    <hyperlink r:id="rId9" ref="C13"/>
-    <hyperlink r:id="rId10" ref="C14"/>
-    <hyperlink r:id="rId11" ref="C15"/>
-    <hyperlink r:id="rId12" ref="C16"/>
-    <hyperlink r:id="rId13" ref="C17"/>
-    <hyperlink r:id="rId14" ref="C18"/>
-    <hyperlink r:id="rId15" ref="C19"/>
-    <hyperlink r:id="rId16" ref="C20"/>
-    <hyperlink r:id="rId17" ref="C21"/>
-    <hyperlink r:id="rId18" ref="C22"/>
-    <hyperlink r:id="rId19" ref="C23"/>
-    <hyperlink r:id="rId20" ref="C24"/>
-    <hyperlink r:id="rId21" ref="C25"/>
-    <hyperlink r:id="rId22" ref="C26"/>
-    <hyperlink r:id="rId23" ref="C27"/>
-    <hyperlink r:id="rId24" ref="C28"/>
-    <hyperlink r:id="rId25" ref="C29"/>
-    <hyperlink r:id="rId26" ref="C30"/>
-    <hyperlink r:id="rId27" ref="C31"/>
-    <hyperlink r:id="rId28" ref="C32"/>
-    <hyperlink r:id="rId29" ref="C33"/>
-    <hyperlink r:id="rId30" ref="C34"/>
-    <hyperlink r:id="rId31" ref="C35"/>
-    <hyperlink r:id="rId32" ref="C36"/>
-    <hyperlink r:id="rId33" ref="C37"/>
-    <hyperlink r:id="rId34" ref="C38"/>
-    <hyperlink r:id="rId35" ref="C39"/>
-    <hyperlink r:id="rId36" ref="C40"/>
-    <hyperlink r:id="rId37" ref="C41"/>
-    <hyperlink r:id="rId38" ref="C44"/>
-    <hyperlink r:id="rId39" ref="C45"/>
-    <hyperlink r:id="rId40" ref="C46"/>
-    <hyperlink r:id="rId41" ref="C47"/>
-    <hyperlink r:id="rId42" ref="C48"/>
-    <hyperlink r:id="rId43" ref="C49"/>
-    <hyperlink r:id="rId44" ref="C50"/>
-    <hyperlink r:id="rId45" ref="C51"/>
-    <hyperlink r:id="rId46" ref="C52"/>
-    <hyperlink r:id="rId47" ref="C53"/>
-    <hyperlink r:id="rId48" ref="C56"/>
-    <hyperlink r:id="rId49" ref="C57"/>
-    <hyperlink r:id="rId50" ref="C58"/>
-    <hyperlink r:id="rId51" ref="C60"/>
-    <hyperlink r:id="rId52" ref="C61"/>
-    <hyperlink r:id="rId53" ref="C62"/>
-    <hyperlink r:id="rId54" ref="C63"/>
-    <hyperlink r:id="rId55" ref="C64"/>
-    <hyperlink r:id="rId56" ref="C65"/>
-    <hyperlink r:id="rId57" ref="C66"/>
-    <hyperlink r:id="rId58" ref="C67"/>
-    <hyperlink r:id="rId59" ref="C68"/>
-    <hyperlink r:id="rId60" ref="C69"/>
-    <hyperlink r:id="rId61" ref="C70"/>
-    <hyperlink r:id="rId62" ref="C71"/>
-    <hyperlink r:id="rId63" ref="C72"/>
-    <hyperlink r:id="rId64" ref="C73"/>
-    <hyperlink r:id="rId65" ref="C74"/>
-    <hyperlink r:id="rId66" ref="C75"/>
-    <hyperlink r:id="rId67" ref="C76"/>
-    <hyperlink r:id="rId68" ref="C77"/>
-    <hyperlink r:id="rId69" ref="C78"/>
-    <hyperlink r:id="rId70" ref="C79"/>
-    <hyperlink r:id="rId71" ref="C80"/>
-    <hyperlink r:id="rId72" ref="C81"/>
-    <hyperlink r:id="rId73" ref="C82"/>
-    <hyperlink r:id="rId74" ref="C83"/>
-    <hyperlink r:id="rId75" ref="C84"/>
-    <hyperlink r:id="rId76" ref="C85"/>
-    <hyperlink r:id="rId77" ref="C86"/>
-    <hyperlink r:id="rId78" ref="C87"/>
-    <hyperlink r:id="rId79" ref="C88"/>
-    <hyperlink r:id="rId80" ref="C89"/>
-    <hyperlink r:id="rId81" ref="C90"/>
-    <hyperlink r:id="rId82" ref="C91"/>
-    <hyperlink r:id="rId83" ref="C92"/>
-    <hyperlink r:id="rId84" ref="C93"/>
-    <hyperlink r:id="rId85" ref="C94"/>
-    <hyperlink r:id="rId86" ref="C95"/>
-    <hyperlink r:id="rId87" ref="C96"/>
-    <hyperlink r:id="rId88" ref="C97"/>
-    <hyperlink r:id="rId89" ref="C98"/>
-    <hyperlink r:id="rId90" ref="C101"/>
-    <hyperlink r:id="rId91" ref="C102"/>
-    <hyperlink r:id="rId92" ref="C103"/>
-    <hyperlink r:id="rId93" ref="C104"/>
-    <hyperlink r:id="rId94" ref="C105"/>
-    <hyperlink r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." ref="C106"/>
-    <hyperlink r:id="rId96" ref="C107"/>
-    <hyperlink r:id="rId97" ref="C108"/>
-    <hyperlink r:id="rId98" ref="C109"/>
-    <hyperlink r:id="rId99" ref="C110"/>
-    <hyperlink r:id="rId100" ref="C111"/>
-    <hyperlink r:id="rId101" ref="C112"/>
-    <hyperlink r:id="rId102" ref="C113"/>
-    <hyperlink r:id="rId103" ref="C114"/>
-    <hyperlink r:id="rId104" ref="C115"/>
-    <hyperlink r:id="rId105" ref="C116"/>
-    <hyperlink r:id="rId106" ref="C117"/>
-    <hyperlink r:id="rId107" ref="C118"/>
-    <hyperlink r:id="rId108" ref="C119"/>
-    <hyperlink r:id="rId109" ref="C120"/>
-    <hyperlink r:id="rId110" ref="C121"/>
-    <hyperlink r:id="rId111" ref="C122"/>
-    <hyperlink r:id="rId112" ref="C123"/>
-    <hyperlink r:id="rId113" ref="C124"/>
-    <hyperlink r:id="rId114" ref="C125"/>
-    <hyperlink r:id="rId115" ref="C126"/>
-    <hyperlink r:id="rId116" ref="C127"/>
-    <hyperlink r:id="rId117" ref="C128"/>
-    <hyperlink r:id="rId118" ref="C129"/>
-    <hyperlink r:id="rId119" ref="C130"/>
-    <hyperlink r:id="rId120" ref="C131"/>
-    <hyperlink r:id="rId121" ref="C132"/>
-    <hyperlink r:id="rId122" ref="C133"/>
-    <hyperlink r:id="rId123" ref="C134"/>
-    <hyperlink r:id="rId124" ref="C135"/>
-    <hyperlink r:id="rId125" ref="C136"/>
-    <hyperlink r:id="rId126" ref="C139"/>
-    <hyperlink r:id="rId127" ref="C140"/>
-    <hyperlink r:id="rId128" ref="C141"/>
-    <hyperlink r:id="rId129" ref="C142"/>
-    <hyperlink r:id="rId130" ref="C143"/>
-    <hyperlink r:id="rId131" ref="C144"/>
-    <hyperlink r:id="rId132" ref="C145"/>
-    <hyperlink r:id="rId133" ref="C146"/>
-    <hyperlink r:id="rId134" ref="C147"/>
-    <hyperlink r:id="rId135" ref="C148"/>
-    <hyperlink r:id="rId136" ref="C149"/>
-    <hyperlink r:id="rId137" ref="C150"/>
-    <hyperlink r:id="rId138" ref="C151"/>
-    <hyperlink r:id="rId139" ref="C152"/>
-    <hyperlink r:id="rId140" ref="C153"/>
-    <hyperlink r:id="rId141" ref="C154"/>
-    <hyperlink r:id="rId142" ref="C155"/>
-    <hyperlink r:id="rId143" ref="C156"/>
-    <hyperlink r:id="rId144" ref="C157"/>
-    <hyperlink r:id="rId145" ref="C158"/>
-    <hyperlink r:id="rId146" ref="C159"/>
-    <hyperlink r:id="rId147" ref="C160"/>
-    <hyperlink r:id="rId148" ref="C161"/>
-    <hyperlink r:id="rId149" ref="C162"/>
-    <hyperlink r:id="rId150" ref="C163"/>
-    <hyperlink r:id="rId151" ref="C166"/>
-    <hyperlink r:id="rId152" ref="C167"/>
-    <hyperlink r:id="rId153" ref="C168"/>
-    <hyperlink r:id="rId154" ref="C169"/>
-    <hyperlink r:id="rId155" ref="C170"/>
-    <hyperlink r:id="rId156" ref="C171"/>
-    <hyperlink r:id="rId157" ref="C172"/>
-    <hyperlink r:id="rId158" ref="C173"/>
-    <hyperlink r:id="rId159" ref="C174"/>
-    <hyperlink r:id="rId160" ref="C177"/>
-    <hyperlink r:id="rId161" ref="C178"/>
-    <hyperlink r:id="rId162" ref="C179"/>
-    <hyperlink r:id="rId163" ref="C180"/>
-    <hyperlink r:id="rId164" ref="C181"/>
-    <hyperlink r:id="rId165" ref="C182"/>
-    <hyperlink r:id="rId166" ref="C183"/>
-    <hyperlink r:id="rId167" ref="C184"/>
-    <hyperlink r:id="rId168" ref="C185"/>
-    <hyperlink r:id="rId169" ref="C186"/>
-    <hyperlink r:id="rId170" ref="C187"/>
-    <hyperlink r:id="rId171" ref="C188"/>
-    <hyperlink r:id="rId172" ref="C189"/>
-    <hyperlink r:id="rId173" ref="C190"/>
-    <hyperlink r:id="rId174" ref="C191"/>
-    <hyperlink r:id="rId175" ref="C192"/>
-    <hyperlink r:id="rId176" ref="C193"/>
-    <hyperlink r:id="rId177" ref="C194"/>
-    <hyperlink r:id="rId178" ref="C195"/>
-    <hyperlink r:id="rId179" ref="C196"/>
-    <hyperlink r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." ref="C197"/>
-    <hyperlink r:id="rId181" ref="C198"/>
-    <hyperlink r:id="rId182" ref="C199"/>
-    <hyperlink r:id="rId183" ref="C200"/>
-    <hyperlink r:id="rId184" ref="C201"/>
-    <hyperlink r:id="rId185" ref="C202"/>
-    <hyperlink r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." ref="C203"/>
-    <hyperlink r:id="rId187" ref="C204"/>
-    <hyperlink r:id="rId188" ref="C205"/>
-    <hyperlink r:id="rId189" ref="C206"/>
-    <hyperlink r:id="rId190" ref="C207"/>
-    <hyperlink r:id="rId191" ref="C208"/>
-    <hyperlink r:id="rId192" ref="C209"/>
-    <hyperlink r:id="rId193" ref="C210"/>
-    <hyperlink r:id="rId194" ref="C211"/>
-    <hyperlink r:id="rId195" ref="C214"/>
-    <hyperlink r:id="rId196" ref="C215"/>
-    <hyperlink r:id="rId197" ref="C216"/>
-    <hyperlink r:id="rId198" ref="C217"/>
-    <hyperlink r:id="rId199" ref="C218"/>
-    <hyperlink r:id="rId200" ref="C219"/>
-    <hyperlink r:id="rId201" ref="C220"/>
-    <hyperlink r:id="rId202" ref="C221"/>
-    <hyperlink r:id="rId203" ref="C222"/>
-    <hyperlink r:id="rId204" ref="C223"/>
-    <hyperlink r:id="rId205" ref="C224"/>
-    <hyperlink r:id="rId206" ref="C225"/>
-    <hyperlink r:id="rId207" ref="C226"/>
-    <hyperlink r:id="rId208" ref="C227"/>
-    <hyperlink r:id="rId209" ref="C228"/>
-    <hyperlink r:id="rId210" ref="C229"/>
-    <hyperlink r:id="rId211" ref="C230"/>
-    <hyperlink r:id="rId212" ref="C231"/>
-    <hyperlink r:id="rId213" ref="C232"/>
-    <hyperlink r:id="rId214" ref="C233"/>
-    <hyperlink r:id="rId215" ref="C234"/>
-    <hyperlink r:id="rId216" ref="C235"/>
-    <hyperlink r:id="rId217" ref="C238"/>
-    <hyperlink r:id="rId218" ref="C239"/>
-    <hyperlink r:id="rId219" ref="C240"/>
-    <hyperlink r:id="rId220" ref="C241"/>
-    <hyperlink r:id="rId221" ref="C242"/>
-    <hyperlink r:id="rId222" ref="C243"/>
-    <hyperlink r:id="rId223" ref="C244"/>
-    <hyperlink r:id="rId224" ref="C245"/>
-    <hyperlink r:id="rId225" ref="C246"/>
-    <hyperlink r:id="rId226" ref="C247"/>
-    <hyperlink r:id="rId227" ref="C248"/>
-    <hyperlink r:id="rId228" ref="C249"/>
-    <hyperlink r:id="rId229" ref="C250"/>
-    <hyperlink r:id="rId230" ref="C251"/>
-    <hyperlink r:id="rId231" ref="C252"/>
-    <hyperlink r:id="rId232" ref="C253"/>
-    <hyperlink r:id="rId233" ref="C254"/>
-    <hyperlink r:id="rId234" ref="C255"/>
-    <hyperlink r:id="rId235" ref="C256"/>
-    <hyperlink r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." ref="C257"/>
-    <hyperlink r:id="rId237" ref="C258"/>
-    <hyperlink r:id="rId238" ref="C259"/>
-    <hyperlink r:id="rId239" ref="C260"/>
-    <hyperlink r:id="rId240" ref="C261"/>
-    <hyperlink r:id="rId241" ref="C262"/>
-    <hyperlink r:id="rId242" ref="C263"/>
-    <hyperlink r:id="rId243" ref="C264"/>
-    <hyperlink r:id="rId244" ref="C265"/>
-    <hyperlink r:id="rId245" ref="C266"/>
-    <hyperlink r:id="rId246" ref="C267"/>
-    <hyperlink r:id="rId247" ref="C268"/>
-    <hyperlink r:id="rId248" ref="C269"/>
-    <hyperlink r:id="rId249" ref="C270"/>
-    <hyperlink r:id="rId250" ref="C271"/>
-    <hyperlink r:id="rId251" ref="C272"/>
-    <hyperlink r:id="rId252" ref="C275"/>
-    <hyperlink r:id="rId253" ref="C276"/>
-    <hyperlink r:id="rId254" ref="C277"/>
-    <hyperlink r:id="rId255" ref="C278"/>
-    <hyperlink r:id="rId256" ref="C279"/>
-    <hyperlink r:id="rId257" ref="C280"/>
-    <hyperlink r:id="rId258" ref="C281"/>
-    <hyperlink r:id="rId259" ref="C282"/>
-    <hyperlink r:id="rId260" ref="C283"/>
-    <hyperlink r:id="rId261" ref="C284"/>
-    <hyperlink r:id="rId262" ref="C285"/>
-    <hyperlink r:id="rId263" ref="C286"/>
-    <hyperlink r:id="rId264" ref="C287"/>
-    <hyperlink r:id="rId265" ref="C288"/>
-    <hyperlink r:id="rId266" ref="C289"/>
-    <hyperlink r:id="rId267" ref="C290"/>
-    <hyperlink r:id="rId268" ref="C291"/>
-    <hyperlink r:id="rId269" ref="C292"/>
-    <hyperlink r:id="rId270" ref="C293"/>
-    <hyperlink r:id="rId271" ref="C296"/>
-    <hyperlink r:id="rId272" ref="C297"/>
-    <hyperlink r:id="rId273" ref="C298"/>
-    <hyperlink r:id="rId274" ref="C299"/>
-    <hyperlink r:id="rId275" ref="C300"/>
-    <hyperlink r:id="rId276" ref="C301"/>
-    <hyperlink r:id="rId277" ref="C302"/>
-    <hyperlink r:id="rId278" ref="C303"/>
-    <hyperlink r:id="rId279" ref="C304"/>
-    <hyperlink r:id="rId280" ref="C305"/>
-    <hyperlink r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." ref="C306"/>
-    <hyperlink r:id="rId282" ref="C307"/>
-    <hyperlink r:id="rId283" ref="C308"/>
-    <hyperlink r:id="rId284" ref="C309"/>
-    <hyperlink r:id="rId285" ref="C310"/>
-    <hyperlink r:id="rId286" ref="C311"/>
-    <hyperlink r:id="rId287" ref="C312"/>
-    <hyperlink r:id="rId288" ref="C313"/>
-    <hyperlink r:id="rId289" ref="C314"/>
-    <hyperlink r:id="rId290" ref="C315"/>
-    <hyperlink r:id="rId291" ref="C316"/>
-    <hyperlink r:id="rId292" ref="C317"/>
-    <hyperlink r:id="rId293" ref="C318"/>
-    <hyperlink r:id="rId294" ref="C319"/>
-    <hyperlink r:id="rId295" ref="C320"/>
-    <hyperlink r:id="rId296" ref="C321"/>
-    <hyperlink r:id="rId297" ref="C322"/>
-    <hyperlink r:id="rId298" ref="C323"/>
-    <hyperlink r:id="rId299" ref="C324"/>
-    <hyperlink r:id="rId300" ref="C325"/>
-    <hyperlink r:id="rId301" ref="C326"/>
-    <hyperlink r:id="rId302" ref="C327"/>
-    <hyperlink r:id="rId303" ref="C328"/>
-    <hyperlink r:id="rId304" ref="C329"/>
-    <hyperlink r:id="rId305" ref="C330"/>
-    <hyperlink r:id="rId306" ref="C331"/>
-    <hyperlink r:id="rId307" ref="C332"/>
-    <hyperlink r:id="rId308" ref="C333"/>
-    <hyperlink r:id="rId309" ref="C336"/>
-    <hyperlink r:id="rId310" ref="C337"/>
-    <hyperlink r:id="rId311" ref="C338"/>
-    <hyperlink r:id="rId312" ref="C339"/>
-    <hyperlink r:id="rId313" ref="C340"/>
-    <hyperlink r:id="rId314" ref="C341"/>
-    <hyperlink r:id="rId315" ref="C342"/>
-    <hyperlink r:id="rId316" ref="C343"/>
-    <hyperlink r:id="rId317" ref="C344"/>
-    <hyperlink r:id="rId318" ref="C345"/>
-    <hyperlink r:id="rId319" ref="C346"/>
-    <hyperlink r:id="rId320" ref="C347"/>
-    <hyperlink r:id="rId321" ref="C348"/>
-    <hyperlink r:id="rId322" ref="C349"/>
-    <hyperlink r:id="rId323" ref="C350"/>
-    <hyperlink r:id="rId324" ref="C351"/>
-    <hyperlink r:id="rId325" ref="C352"/>
-    <hyperlink r:id="rId326" ref="C353"/>
-    <hyperlink r:id="rId327" ref="C356"/>
-    <hyperlink r:id="rId328" ref="C357"/>
-    <hyperlink r:id="rId329" ref="C358"/>
-    <hyperlink r:id="rId330" ref="C359"/>
-    <hyperlink r:id="rId331" ref="C360"/>
-    <hyperlink r:id="rId332" ref="C361"/>
-    <hyperlink r:id="rId333" ref="C362"/>
-    <hyperlink r:id="rId334" ref="C363"/>
-    <hyperlink r:id="rId335" ref="C364"/>
-    <hyperlink r:id="rId336" ref="C365"/>
-    <hyperlink r:id="rId337" ref="C366"/>
-    <hyperlink r:id="rId338" ref="C367"/>
-    <hyperlink r:id="rId339" ref="C368"/>
-    <hyperlink r:id="rId340" ref="C369"/>
-    <hyperlink r:id="rId341" ref="C370"/>
-    <hyperlink r:id="rId342" ref="C371"/>
-    <hyperlink r:id="rId343" ref="C372"/>
-    <hyperlink r:id="rId344" ref="C373"/>
-    <hyperlink r:id="rId345" ref="C374"/>
-    <hyperlink r:id="rId346" ref="C375"/>
-    <hyperlink r:id="rId347" ref="C376"/>
-    <hyperlink r:id="rId348" ref="C377"/>
-    <hyperlink r:id="rId349" ref="C378"/>
-    <hyperlink r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." ref="C379"/>
-    <hyperlink r:id="rId351" ref="C380"/>
-    <hyperlink r:id="rId352" ref="C381"/>
-    <hyperlink r:id="rId353" ref="C382"/>
-    <hyperlink r:id="rId354" ref="C383"/>
-    <hyperlink r:id="rId355" ref="C384"/>
-    <hyperlink r:id="rId356" ref="C385"/>
-    <hyperlink r:id="rId357" ref="C386"/>
-    <hyperlink r:id="rId358" ref="C387"/>
-    <hyperlink r:id="rId359" ref="C388"/>
-    <hyperlink r:id="rId360" ref="C389"/>
-    <hyperlink r:id="rId361" ref="C390"/>
-    <hyperlink r:id="rId362" ref="C391"/>
-    <hyperlink r:id="rId363" ref="C392"/>
-    <hyperlink r:id="rId364" ref="C393"/>
-    <hyperlink r:id="rId365" ref="C394"/>
-    <hyperlink r:id="rId366" ref="C395"/>
-    <hyperlink r:id="rId367" ref="C396"/>
-    <hyperlink r:id="rId368" ref="C397"/>
-    <hyperlink r:id="rId369" ref="C398"/>
-    <hyperlink r:id="rId370" ref="C399"/>
-    <hyperlink r:id="rId371" ref="C402"/>
-    <hyperlink r:id="rId372" ref="C403"/>
-    <hyperlink r:id="rId373" ref="C404"/>
-    <hyperlink r:id="rId374" ref="C405"/>
-    <hyperlink r:id="rId375" ref="C406"/>
-    <hyperlink r:id="rId376" ref="C407"/>
-    <hyperlink r:id="rId377" ref="C410"/>
-    <hyperlink r:id="rId378" ref="C411"/>
-    <hyperlink r:id="rId379" ref="C412"/>
-    <hyperlink r:id="rId380" ref="C413"/>
-    <hyperlink r:id="rId381" ref="C414"/>
-    <hyperlink r:id="rId382" ref="C415"/>
-    <hyperlink r:id="rId383" ref="C416"/>
-    <hyperlink r:id="rId384" ref="C417"/>
-    <hyperlink r:id="rId385" ref="C418"/>
-    <hyperlink r:id="rId386" ref="C419"/>
-    <hyperlink r:id="rId387" ref="C420"/>
-    <hyperlink r:id="rId388" ref="C421"/>
-    <hyperlink r:id="rId389" ref="C422"/>
-    <hyperlink r:id="rId390" ref="C423"/>
-    <hyperlink r:id="rId391" ref="C424"/>
-    <hyperlink r:id="rId392" ref="C425"/>
-    <hyperlink r:id="rId393" ref="C426"/>
-    <hyperlink r:id="rId394" ref="C427"/>
-    <hyperlink r:id="rId395" ref="C428"/>
-    <hyperlink r:id="rId396" ref="C429"/>
-    <hyperlink r:id="rId397" ref="C430"/>
-    <hyperlink r:id="rId398" ref="C431"/>
-    <hyperlink r:id="rId399" ref="C432"/>
-    <hyperlink r:id="rId400" ref="C433"/>
-    <hyperlink r:id="rId401" ref="C434"/>
-    <hyperlink r:id="rId402" ref="C435"/>
-    <hyperlink r:id="rId403" ref="C436"/>
-    <hyperlink r:id="rId404" ref="C437"/>
-    <hyperlink r:id="rId405" ref="C438"/>
-    <hyperlink r:id="rId406" ref="C439"/>
-    <hyperlink r:id="rId407" ref="C440"/>
-    <hyperlink r:id="rId408" ref="C441"/>
-    <hyperlink r:id="rId409" ref="C442"/>
-    <hyperlink r:id="rId410" ref="C443"/>
-    <hyperlink r:id="rId411" ref="C444"/>
-    <hyperlink r:id="rId412" ref="C445"/>
-    <hyperlink r:id="rId413" ref="C446"/>
-    <hyperlink r:id="rId414" ref="C447"/>
-    <hyperlink r:id="rId415" ref="C448"/>
-    <hyperlink r:id="rId416" ref="C449"/>
-    <hyperlink r:id="rId417" ref="C450"/>
-    <hyperlink r:id="rId418" ref="C451"/>
-    <hyperlink r:id="rId419" ref="C452"/>
-    <hyperlink r:id="rId420" ref="C453"/>
-    <hyperlink r:id="rId421" ref="C454"/>
-    <hyperlink r:id="rId422" ref="C455"/>
-    <hyperlink r:id="rId423" ref="C456"/>
-    <hyperlink r:id="rId424" ref="C457"/>
-    <hyperlink r:id="rId425" ref="C458"/>
-    <hyperlink r:id="rId426" ref="C459"/>
-    <hyperlink r:id="rId427" ref="C460"/>
-    <hyperlink r:id="rId428" ref="C461"/>
-    <hyperlink r:id="rId429" ref="C462"/>
-    <hyperlink r:id="rId430" ref="C463"/>
-    <hyperlink r:id="rId431" ref="C464"/>
-    <hyperlink r:id="rId432" ref="C465"/>
-    <hyperlink r:id="rId433" ref="C466"/>
-    <hyperlink r:id="rId434" ref="C467"/>
-    <hyperlink r:id="rId435" ref="C468"/>
-    <hyperlink r:id="rId436" ref="C469"/>
-    <hyperlink r:id="rId437" ref="C472"/>
-    <hyperlink r:id="rId438" ref="C473"/>
-    <hyperlink r:id="rId439" ref="C474"/>
-    <hyperlink r:id="rId440" ref="C475"/>
-    <hyperlink r:id="rId441" ref="C476"/>
-    <hyperlink r:id="rId442" ref="C477"/>
-    <hyperlink r:id="rId443" ref="C478"/>
-    <hyperlink r:id="rId444" ref="C479"/>
-    <hyperlink r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." ref="C480"/>
-    <hyperlink r:id="rId446" ref="C481"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="C346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="C348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="C350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="C352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="C356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="C358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="C360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="C362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="C364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="C368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="C370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="C372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="C374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="C378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="C380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="C410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="C414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="C418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="C420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="C426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="C430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="C432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="C434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="C436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="C438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="C442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="C444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="C446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="C448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="C450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="C456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="C458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="C462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="C464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="C466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="C468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="C472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="C474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="C476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="C478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="C481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placements\Love-Babbar-SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5D9FD-612A-43A7-B47D-785D48B1A713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4C2CF-D494-48B7-9029-74A8390A8F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1935,7 +1935,7 @@
       <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="18" t="s">
         <v>8</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placements\Love-Babbar-SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4C2CF-D494-48B7-9029-74A8390A8F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E78B47F-62CE-4DDD-80A8-C1964CC2C538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1509,8 +1509,13 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1520,6 +1525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1568,6 +1579,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1787,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2061,7 +2075,7 @@
       <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2075,7 +2089,7 @@
       <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8658,6 +8672,6 @@
     <hyperlink ref="C481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placements\Love-Babbar-SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E78B47F-62CE-4DDD-80A8-C1964CC2C538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB9661-269A-4FC4-A3E1-20A118E4305F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="465">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -439,9 +439,6 @@
   </si>
   <si>
     <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
   </si>
   <si>
     <t>Write a program to Detect loop in a linked list.</t>
@@ -1801,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="C479" sqref="C479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3628,7 +3625,7 @@
       <c r="C139" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3640,7 +3637,7 @@
         <v>136</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>8</v>
@@ -3654,7 +3651,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>8</v>
@@ -3668,7 +3665,7 @@
         <v>136</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>8</v>
@@ -3682,7 +3679,7 @@
         <v>136</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>8</v>
@@ -3696,7 +3693,7 @@
         <v>136</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>8</v>
@@ -3710,7 +3707,7 @@
         <v>136</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>8</v>
@@ -3724,7 +3721,7 @@
         <v>136</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>8</v>
@@ -3738,7 +3735,7 @@
         <v>136</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>8</v>
@@ -3752,7 +3749,7 @@
         <v>136</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>8</v>
@@ -3766,7 +3763,7 @@
         <v>136</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>8</v>
@@ -3780,7 +3777,7 @@
         <v>136</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>8</v>
@@ -3794,7 +3791,7 @@
         <v>136</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>8</v>
@@ -3808,7 +3805,7 @@
         <v>136</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>8</v>
@@ -3822,7 +3819,7 @@
         <v>136</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>8</v>
@@ -3836,7 +3833,7 @@
         <v>136</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>8</v>
@@ -3850,7 +3847,7 @@
         <v>136</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>8</v>
@@ -3864,7 +3861,7 @@
         <v>136</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>8</v>
@@ -3878,7 +3875,7 @@
         <v>136</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>8</v>
@@ -3892,7 +3889,7 @@
         <v>136</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>8</v>
@@ -3906,7 +3903,7 @@
         <v>136</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>8</v>
@@ -3920,7 +3917,7 @@
         <v>136</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>8</v>
@@ -3934,7 +3931,7 @@
         <v>136</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>8</v>
@@ -3948,7 +3945,7 @@
         <v>136</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>8</v>
@@ -3962,7 +3959,7 @@
         <v>136</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>8</v>
@@ -3976,7 +3973,7 @@
         <v>136</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>8</v>
@@ -3990,7 +3987,7 @@
         <v>136</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>8</v>
@@ -4004,7 +4001,7 @@
         <v>136</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>8</v>
@@ -4018,7 +4015,7 @@
         <v>136</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>8</v>
@@ -4032,7 +4029,7 @@
         <v>136</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>8</v>
@@ -4046,7 +4043,7 @@
         <v>136</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>8</v>
@@ -4060,7 +4057,7 @@
         <v>136</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>8</v>
@@ -4074,7 +4071,7 @@
         <v>136</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>8</v>
@@ -4088,7 +4085,7 @@
         <v>136</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>8</v>
@@ -4102,7 +4099,7 @@
         <v>136</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>8</v>
@@ -4116,7 +4113,7 @@
         <v>136</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>8</v>
@@ -4132,10 +4129,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>8</v>
@@ -4146,10 +4143,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>8</v>
@@ -4160,10 +4157,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>8</v>
@@ -4174,10 +4171,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>8</v>
@@ -4188,10 +4185,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>8</v>
@@ -4202,10 +4199,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>8</v>
@@ -4216,10 +4213,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>8</v>
@@ -4230,10 +4227,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>8</v>
@@ -4244,10 +4241,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>8</v>
@@ -4258,10 +4255,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>8</v>
@@ -4272,10 +4269,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>8</v>
@@ -4286,10 +4283,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>8</v>
@@ -4300,10 +4297,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>8</v>
@@ -4314,10 +4311,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>8</v>
@@ -4328,10 +4325,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>8</v>
@@ -4342,10 +4339,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>8</v>
@@ -4356,10 +4353,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>8</v>
@@ -4370,10 +4367,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>8</v>
@@ -4384,10 +4381,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>8</v>
@@ -4398,10 +4395,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>8</v>
@@ -4412,10 +4409,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>8</v>
@@ -4426,10 +4423,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>8</v>
@@ -4440,10 +4437,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>8</v>
@@ -4454,10 +4451,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>8</v>
@@ -4468,10 +4465,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>8</v>
@@ -4482,10 +4479,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>8</v>
@@ -4496,10 +4493,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>8</v>
@@ -4510,10 +4507,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>8</v>
@@ -4524,10 +4521,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>8</v>
@@ -4538,10 +4535,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>8</v>
@@ -4552,10 +4549,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>8</v>
@@ -4566,10 +4563,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>8</v>
@@ -4580,10 +4577,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>8</v>
@@ -4594,10 +4591,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>8</v>
@@ -4608,10 +4605,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>8</v>
@@ -4633,10 +4630,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C214" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>8</v>
@@ -4647,10 +4644,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>8</v>
@@ -4661,10 +4658,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>8</v>
@@ -4675,10 +4672,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>8</v>
@@ -4689,10 +4686,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>8</v>
@@ -4703,10 +4700,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>8</v>
@@ -4717,10 +4714,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>8</v>
@@ -4731,10 +4728,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>8</v>
@@ -4745,10 +4742,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>8</v>
@@ -4759,10 +4756,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>8</v>
@@ -4773,10 +4770,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>8</v>
@@ -4787,10 +4784,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>8</v>
@@ -4801,10 +4798,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>8</v>
@@ -4815,10 +4812,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>8</v>
@@ -4829,10 +4826,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>8</v>
@@ -4843,10 +4840,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>8</v>
@@ -4857,10 +4854,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>8</v>
@@ -4871,10 +4868,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>8</v>
@@ -4885,10 +4882,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>8</v>
@@ -4899,10 +4896,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>8</v>
@@ -4913,10 +4910,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>8</v>
@@ -4927,10 +4924,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>8</v>
@@ -4949,10 +4946,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C238" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>8</v>
@@ -4963,10 +4960,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>8</v>
@@ -4977,10 +4974,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>8</v>
@@ -4991,10 +4988,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>8</v>
@@ -5005,10 +5002,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>8</v>
@@ -5019,10 +5016,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>8</v>
@@ -5033,10 +5030,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>8</v>
@@ -5047,10 +5044,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>8</v>
@@ -5061,10 +5058,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>8</v>
@@ -5075,10 +5072,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>8</v>
@@ -5089,10 +5086,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>8</v>
@@ -5103,10 +5100,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>8</v>
@@ -5117,10 +5114,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>8</v>
@@ -5131,10 +5128,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>8</v>
@@ -5145,10 +5142,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>8</v>
@@ -5159,10 +5156,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>8</v>
@@ -5173,10 +5170,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>8</v>
@@ -5187,10 +5184,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>8</v>
@@ -5201,10 +5198,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>8</v>
@@ -5215,10 +5212,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>8</v>
@@ -5229,10 +5226,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>8</v>
@@ -5243,10 +5240,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>8</v>
@@ -5257,10 +5254,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>8</v>
@@ -5271,10 +5268,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>8</v>
@@ -5285,10 +5282,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>8</v>
@@ -5299,10 +5296,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>8</v>
@@ -5313,10 +5310,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>8</v>
@@ -5327,10 +5324,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>8</v>
@@ -5341,10 +5338,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>8</v>
@@ -5355,10 +5352,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>8</v>
@@ -5369,10 +5366,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>8</v>
@@ -5383,10 +5380,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>8</v>
@@ -5397,10 +5394,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>8</v>
@@ -5411,7 +5408,7 @@
         <v>252</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>89</v>
@@ -5425,10 +5422,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>8</v>
@@ -5447,10 +5444,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C275" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>8</v>
@@ -5461,10 +5458,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>8</v>
@@ -5475,10 +5472,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>8</v>
@@ -5489,10 +5486,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>8</v>
@@ -5503,10 +5500,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>8</v>
@@ -5517,10 +5514,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>8</v>
@@ -5531,10 +5528,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>8</v>
@@ -5545,10 +5542,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>8</v>
@@ -5559,10 +5556,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>8</v>
@@ -5573,10 +5570,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>8</v>
@@ -5587,10 +5584,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>8</v>
@@ -5601,10 +5598,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>8</v>
@@ -5615,10 +5612,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>8</v>
@@ -5629,10 +5626,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>8</v>
@@ -5643,10 +5640,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>8</v>
@@ -5657,10 +5654,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>8</v>
@@ -5671,10 +5668,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>8</v>
@@ -5685,10 +5682,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>8</v>
@@ -5699,10 +5696,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>8</v>
@@ -5721,10 +5718,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C296" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="C296" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>8</v>
@@ -5735,10 +5732,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>8</v>
@@ -5749,10 +5746,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>8</v>
@@ -5763,10 +5760,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>8</v>
@@ -5777,10 +5774,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>8</v>
@@ -5791,10 +5788,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>8</v>
@@ -5805,10 +5802,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>8</v>
@@ -5819,10 +5816,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>8</v>
@@ -5833,10 +5830,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>8</v>
@@ -5847,10 +5844,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>8</v>
@@ -5861,10 +5858,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>8</v>
@@ -5875,10 +5872,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>8</v>
@@ -5889,10 +5886,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>8</v>
@@ -5903,10 +5900,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>8</v>
@@ -5917,10 +5914,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D310" s="5" t="s">
         <v>8</v>
@@ -5931,10 +5928,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D311" s="5" t="s">
         <v>8</v>
@@ -5945,10 +5942,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D312" s="5" t="s">
         <v>8</v>
@@ -5959,10 +5956,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D313" s="5" t="s">
         <v>8</v>
@@ -5973,10 +5970,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D314" s="5" t="s">
         <v>8</v>
@@ -5987,10 +5984,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>8</v>
@@ -6001,10 +5998,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>8</v>
@@ -6015,10 +6012,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D317" s="5" t="s">
         <v>8</v>
@@ -6029,10 +6026,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>8</v>
@@ -6043,10 +6040,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>8</v>
@@ -6057,10 +6054,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>8</v>
@@ -6071,10 +6068,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D321" s="5" t="s">
         <v>8</v>
@@ -6085,10 +6082,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>8</v>
@@ -6099,10 +6096,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D323" s="5" t="s">
         <v>8</v>
@@ -6113,10 +6110,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D324" s="5" t="s">
         <v>8</v>
@@ -6127,10 +6124,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>8</v>
@@ -6141,10 +6138,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D326" s="5" t="s">
         <v>8</v>
@@ -6155,10 +6152,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D327" s="5" t="s">
         <v>8</v>
@@ -6169,10 +6166,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D328" s="5" t="s">
         <v>8</v>
@@ -6183,10 +6180,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>8</v>
@@ -6197,10 +6194,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D330" s="5" t="s">
         <v>8</v>
@@ -6211,10 +6208,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>8</v>
@@ -6225,10 +6222,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D332" s="5" t="s">
         <v>8</v>
@@ -6239,10 +6236,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D333" s="5" t="s">
         <v>8</v>
@@ -6261,10 +6258,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C336" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="C336" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>8</v>
@@ -6275,10 +6272,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>8</v>
@@ -6289,10 +6286,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D338" s="5" t="s">
         <v>8</v>
@@ -6303,10 +6300,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D339" s="5" t="s">
         <v>8</v>
@@ -6317,10 +6314,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>8</v>
@@ -6331,10 +6328,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>8</v>
@@ -6345,10 +6342,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>8</v>
@@ -6359,10 +6356,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>8</v>
@@ -6373,10 +6370,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C344" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>8</v>
@@ -6387,10 +6384,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>8</v>
@@ -6401,10 +6398,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>8</v>
@@ -6415,10 +6412,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D347" s="5" t="s">
         <v>8</v>
@@ -6429,10 +6426,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>8</v>
@@ -6443,10 +6440,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>8</v>
@@ -6457,10 +6454,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>8</v>
@@ -6471,10 +6468,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>8</v>
@@ -6485,10 +6482,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>8</v>
@@ -6499,10 +6496,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D353" s="5" t="s">
         <v>8</v>
@@ -6521,10 +6518,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C356" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="C356" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>8</v>
@@ -6535,10 +6532,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>8</v>
@@ -6549,10 +6546,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>8</v>
@@ -6563,10 +6560,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>8</v>
@@ -6577,10 +6574,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D360" s="5" t="s">
         <v>8</v>
@@ -6591,10 +6588,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D361" s="5" t="s">
         <v>8</v>
@@ -6605,10 +6602,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>8</v>
@@ -6619,10 +6616,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>8</v>
@@ -6633,10 +6630,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>8</v>
@@ -6647,10 +6644,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D365" s="5" t="s">
         <v>8</v>
@@ -6661,10 +6658,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>8</v>
@@ -6675,10 +6672,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>8</v>
@@ -6689,10 +6686,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D368" s="5" t="s">
         <v>8</v>
@@ -6703,10 +6700,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>8</v>
@@ -6717,10 +6714,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D370" s="5" t="s">
         <v>8</v>
@@ -6731,10 +6728,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D371" s="5" t="s">
         <v>8</v>
@@ -6745,10 +6742,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>8</v>
@@ -6759,10 +6756,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>8</v>
@@ -6773,10 +6770,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>8</v>
@@ -6787,10 +6784,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>8</v>
@@ -6801,10 +6798,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>8</v>
@@ -6815,10 +6812,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>8</v>
@@ -6829,10 +6826,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>8</v>
@@ -6843,10 +6840,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>8</v>
@@ -6857,10 +6854,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D380" s="5" t="s">
         <v>8</v>
@@ -6871,10 +6868,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D381" s="5" t="s">
         <v>8</v>
@@ -6885,10 +6882,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>8</v>
@@ -6899,10 +6896,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>8</v>
@@ -6913,10 +6910,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>8</v>
@@ -6927,10 +6924,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>8</v>
@@ -6941,10 +6938,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>8</v>
@@ -6955,10 +6952,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D387" s="5" t="s">
         <v>8</v>
@@ -6969,10 +6966,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>8</v>
@@ -6983,10 +6980,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D389" s="5" t="s">
         <v>8</v>
@@ -6997,10 +6994,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>8</v>
@@ -7011,10 +7008,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D391" s="5" t="s">
         <v>8</v>
@@ -7025,10 +7022,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>8</v>
@@ -7039,10 +7036,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D393" s="5" t="s">
         <v>8</v>
@@ -7053,10 +7050,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>8</v>
@@ -7067,10 +7064,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>8</v>
@@ -7081,10 +7078,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>8</v>
@@ -7095,10 +7092,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>8</v>
@@ -7109,10 +7106,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>8</v>
@@ -7123,10 +7120,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D399" s="5" t="s">
         <v>8</v>
@@ -7145,10 +7142,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C402" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="C402" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>8</v>
@@ -7159,10 +7156,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D403" s="5" t="s">
         <v>8</v>
@@ -7173,10 +7170,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>8</v>
@@ -7187,7 +7184,7 @@
         <v>376</v>
       </c>
       <c r="B405" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C405" s="8" t="s">
         <v>91</v>
@@ -7201,10 +7198,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>8</v>
@@ -7215,10 +7212,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>8</v>
@@ -7238,10 +7235,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C410" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="C410" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>8</v>
@@ -7252,10 +7249,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>8</v>
@@ -7266,10 +7263,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>8</v>
@@ -7280,10 +7277,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>8</v>
@@ -7294,10 +7291,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D414" s="5" t="s">
         <v>8</v>
@@ -7308,10 +7305,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>8</v>
@@ -7322,10 +7319,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D416" s="5" t="s">
         <v>8</v>
@@ -7336,10 +7333,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>8</v>
@@ -7350,10 +7347,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>8</v>
@@ -7364,10 +7361,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>8</v>
@@ -7378,10 +7375,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>8</v>
@@ -7392,10 +7389,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>8</v>
@@ -7406,10 +7403,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>8</v>
@@ -7420,10 +7417,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>8</v>
@@ -7434,10 +7431,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>8</v>
@@ -7448,10 +7445,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D425" s="5" t="s">
         <v>8</v>
@@ -7462,10 +7459,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>8</v>
@@ -7476,10 +7473,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>8</v>
@@ -7490,10 +7487,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>8</v>
@@ -7504,10 +7501,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>8</v>
@@ -7518,10 +7515,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>8</v>
@@ -7532,10 +7529,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>8</v>
@@ -7546,10 +7543,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>8</v>
@@ -7560,10 +7557,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>8</v>
@@ -7574,10 +7571,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>8</v>
@@ -7588,10 +7585,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D435" s="5" t="s">
         <v>8</v>
@@ -7602,10 +7599,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>8</v>
@@ -7616,10 +7613,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>8</v>
@@ -7630,10 +7627,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>8</v>
@@ -7644,10 +7641,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>8</v>
@@ -7658,10 +7655,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>8</v>
@@ -7672,10 +7669,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>8</v>
@@ -7686,10 +7683,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D442" s="5" t="s">
         <v>8</v>
@@ -7700,10 +7697,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D443" s="5" t="s">
         <v>8</v>
@@ -7714,10 +7711,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D444" s="5" t="s">
         <v>8</v>
@@ -7728,10 +7725,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>8</v>
@@ -7742,10 +7739,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>8</v>
@@ -7756,10 +7753,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D447" s="5" t="s">
         <v>8</v>
@@ -7770,10 +7767,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D448" s="5" t="s">
         <v>8</v>
@@ -7784,10 +7781,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D449" s="5" t="s">
         <v>8</v>
@@ -7798,10 +7795,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D450" s="5" t="s">
         <v>8</v>
@@ -7812,10 +7809,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>8</v>
@@ -7826,10 +7823,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>8</v>
@@ -7840,10 +7837,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>8</v>
@@ -7854,10 +7851,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>8</v>
@@ -7868,10 +7865,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D455" s="5" t="s">
         <v>8</v>
@@ -7882,10 +7879,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D456" s="5" t="s">
         <v>8</v>
@@ -7896,10 +7893,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D457" s="5" t="s">
         <v>8</v>
@@ -7910,10 +7907,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D458" s="5" t="s">
         <v>8</v>
@@ -7924,10 +7921,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D459" s="5" t="s">
         <v>8</v>
@@ -7938,10 +7935,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D460" s="5" t="s">
         <v>8</v>
@@ -7952,10 +7949,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D461" s="5" t="s">
         <v>8</v>
@@ -7966,10 +7963,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D462" s="5" t="s">
         <v>8</v>
@@ -7980,10 +7977,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D463" s="5" t="s">
         <v>8</v>
@@ -7994,10 +7991,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D464" s="5" t="s">
         <v>8</v>
@@ -8008,10 +8005,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D465" s="5" t="s">
         <v>8</v>
@@ -8022,10 +8019,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D466" s="5" t="s">
         <v>8</v>
@@ -8036,10 +8033,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>8</v>
@@ -8050,10 +8047,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D468" s="5" t="s">
         <v>8</v>
@@ -8064,10 +8061,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D469" s="5" t="s">
         <v>8</v>
@@ -8087,10 +8084,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C472" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="C472" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="D472" s="5" t="s">
         <v>8</v>
@@ -8101,10 +8098,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D473" s="5" t="s">
         <v>8</v>
@@ -8115,10 +8112,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D474" s="5" t="s">
         <v>8</v>
@@ -8129,10 +8126,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D475" s="5" t="s">
         <v>8</v>
@@ -8143,10 +8140,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D476" s="5" t="s">
         <v>8</v>
@@ -8157,10 +8154,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D477" s="5" t="s">
         <v>8</v>
@@ -8171,10 +8168,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D478" s="5" t="s">
         <v>8</v>
@@ -8185,10 +8182,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D479" s="5" t="s">
         <v>8</v>
@@ -8199,10 +8196,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D480" s="5" t="s">
         <v>8</v>
@@ -8213,10 +8210,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D481" s="5" t="s">
         <v>8</v>
@@ -8350,326 +8347,326 @@
     <hyperlink ref="C135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
     <hyperlink ref="C136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
     <hyperlink ref="C139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="C145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="C158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="C160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="C166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="C167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="C168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="C170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="C174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="C177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="C178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="C180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="C182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="C184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="C186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="C187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="C189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="C191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="C192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="C194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="C225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="C238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="C240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="C250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="C258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="C260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="C264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="C266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="C268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="C270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="C271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="C272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="C276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="C277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="C278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="C279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="C280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="C281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="C282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="C283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="C284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="C285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="C286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="C287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="C288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="C289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="C290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="C291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="C292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="C293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="C296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="C297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="C298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="C299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="C300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="C301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="C302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="C303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="C304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="C305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="C306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="C307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="C308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="C309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="C310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="C311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="C312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="C313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="C314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="C315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="C316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="C317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="C318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="C319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="C320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="C321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="C322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="C323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="C324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="C325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="C326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="C327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="C328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="C329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="C330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="C331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="C332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="C333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="C336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="C337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="C338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="C339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="C340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="C341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="C342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="C343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="C344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="C345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="C346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="C347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="C348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="C349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="C350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="C351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="C352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="C353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="C356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="C357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="C358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="C359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="C360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="C361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="C362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="C363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="C364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="C365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="C366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="C367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="C368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="C369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="C370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="C371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="C372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="C373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="C374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="C375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="C376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="C377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="C378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="C379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="C380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="C381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="C382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="C383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="C384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="C385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="C386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="C387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="C388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="C389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="C390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="C391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="C392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="C393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="C394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="C395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="C396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="C397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="C398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="C399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="C402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="C403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="C404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="C405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="C406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="C407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="C410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="C411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="C412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="C413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="C414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="C415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="C416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="C417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="C418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="C419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="C420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="C421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="C422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="C423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="C424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="C425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="C426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="C427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="C428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="C429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="C430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="C431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="C432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="C433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="C434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="C435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="C436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="C437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="C438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="C439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="C440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="C441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="C442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="C443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="C444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="C445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="C446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="C447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="C448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="C449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="C450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="C451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="C452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="C453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="C454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="C455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="C456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="C457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="C458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="C459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="C460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="C461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="C462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="C463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="C464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="C465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="C466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="C467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="C468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="C469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="C472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="C473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="C474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="C475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="C476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="C477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="C478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="C479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="C480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="C481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="C141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="C346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="C348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="C350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="C352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="C356" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C357" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="C358" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C359" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="C360" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C361" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="C362" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C363" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="C364" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C365" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C366" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C367" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="C368" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C369" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="C370" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C371" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="C372" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C373" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="C374" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C375" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C376" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C377" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="C378" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C379" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="C380" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C381" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C382" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C383" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C384" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C385" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C386" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C387" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C388" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C389" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C390" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C391" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C392" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C393" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C394" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C396" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C397" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C398" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C399" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C402" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C403" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C404" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C405" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C406" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C407" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="C410" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C411" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C412" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C413" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="C414" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C415" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C416" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C417" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="C418" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C419" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="C420" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C421" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C422" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C423" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C424" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C425" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="C426" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C427" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C428" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C429" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="C430" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C431" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="C432" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C433" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="C434" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C435" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="C436" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C437" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="C438" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C439" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C440" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C441" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="C442" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C443" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="C444" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C445" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="C446" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C447" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="C448" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C449" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="C450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C451" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C452" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C453" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C454" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C455" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="C456" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C457" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="C458" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C459" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C460" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C461" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="C462" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C463" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="C464" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C465" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="C466" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C467" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="C468" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C469" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="C472" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C473" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="C474" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C475" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="C476" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C477" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="C478" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="C481" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="C140" r:id="rId446" xr:uid="{F69CB263-E96D-484E-9B8C-B1EA06EE2612}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId447"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placements\Love-Babbar-SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB9661-269A-4FC4-A3E1-20A118E4305F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB56D1-6928-4BE2-B52D-F41E8AC3E9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1798,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C479" sqref="C479"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2016,7 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="18" t="s">
         <v>8</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placements\Love-Babbar-SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB56D1-6928-4BE2-B52D-F41E8AC3E9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7AA723-5814-4DC4-AF94-41DD18B2E2CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1798,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2240,7 @@
       <c r="C34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       <c r="C44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       <c r="C66" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="18" t="s">
         <v>8</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placements\Love-Babbar-SDE-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7AA723-5814-4DC4-AF94-41DD18B2E2CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4EF7C3-6A09-4501-B906-3FDA1FDEF845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1798,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2733,7 +2733,7 @@
       <c r="C72" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       <c r="C101" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="18" t="s">
         <v>8</v>
       </c>
     </row>
